--- a/aaaaaaaaa.xlsx
+++ b/aaaaaaaaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D65E79A-1F65-49B1-9D20-6B2EEE2C4470}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6C089-6A17-494A-AD95-CD3D98D5009E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3330" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="2295" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>う</t>
+    <t>お</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>え</t>
+    <t>うううう</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お</t>
+    <t>えぇぇぇ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
@@ -389,17 +389,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaaaaaa.xlsx
+++ b/aaaaaaaaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6C089-6A17-494A-AD95-CD3D98D5009E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501ADA30-38BC-4779-AD6C-FF2A45FA0010}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="2295" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="3285" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,13 @@
   </si>
   <si>
     <t>えぇぇぇ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更しました</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -369,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75"/>
@@ -402,6 +409,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
